--- a/RA/Nani_2022/T_15/T15_G4_5_Coding_explanation_1.xlsx
+++ b/RA/Nani_2022/T_15/T15_G4_5_Coding_explanation_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tony\Dropbox (UiO)\Nani\2022\T_15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731CCDE7-D601-4B9A-8C72-23A7AECC6C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416E07DA-9728-475A-B6B3-001EF43B4997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="2730" windowWidth="17280" windowHeight="9465" activeTab="1" xr2:uid="{746C5153-993A-4D34-9FB4-52770A3E65E7}"/>
+    <workbookView xWindow="16125" yWindow="5220" windowWidth="17280" windowHeight="9465" activeTab="1" xr2:uid="{746C5153-993A-4D34-9FB4-52770A3E65E7}"/>
   </bookViews>
   <sheets>
     <sheet name="1_G4_PV" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="1114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="1190">
   <si>
     <t>IDCNTRY</t>
   </si>
@@ -2751,15 +2751,9 @@
     <t>LManyAdm</t>
   </si>
   <si>
-    <t>Number of student in the class</t>
-  </si>
-  <si>
     <t>NStdCl</t>
   </si>
   <si>
-    <t>Number of student in the class in Grade 4</t>
-  </si>
-  <si>
     <t>NStdG4</t>
   </si>
   <si>
@@ -2961,18 +2955,6 @@
     <t>SpecOther</t>
   </si>
   <si>
-    <t>0=Female, 1=Male</t>
-  </si>
-  <si>
-    <t>0=Under 25, …</t>
-  </si>
-  <si>
-    <t>0=Did not complete, …</t>
-  </si>
-  <si>
-    <t>0=No, 1=Yes</t>
-  </si>
-  <si>
     <t>Mathematics Topics Taught to the TIMSS Class</t>
   </si>
   <si>
@@ -3024,21 +3006,12 @@
     <t>MTopRota</t>
   </si>
   <si>
-    <t>MTopRShp</t>
-  </si>
-  <si>
-    <t>Time for math homework</t>
-  </si>
-  <si>
     <t>MHomeW</t>
   </si>
   <si>
     <t>MTimeHW</t>
   </si>
   <si>
-    <t>Assessing mathematics homework</t>
-  </si>
-  <si>
     <t>MHWCor</t>
   </si>
   <si>
@@ -3376,6 +3349,261 @@
   </si>
   <si>
     <t>TIMSS compound variable: Teaching limited by student needs</t>
+  </si>
+  <si>
+    <t>Teaching constaint</t>
+  </si>
+  <si>
+    <t>ConBuil</t>
+  </si>
+  <si>
+    <t>ConSpac</t>
+  </si>
+  <si>
+    <t>ConMate</t>
+  </si>
+  <si>
+    <t>ConHyge</t>
+  </si>
+  <si>
+    <t>ConMain</t>
+  </si>
+  <si>
+    <t>ConReso</t>
+  </si>
+  <si>
+    <t>ConSupp</t>
+  </si>
+  <si>
+    <t>IntDisc</t>
+  </si>
+  <si>
+    <t>IntColl</t>
+  </si>
+  <si>
+    <t>IntLear</t>
+  </si>
+  <si>
+    <t>IntVisi</t>
+  </si>
+  <si>
+    <t>IntToge</t>
+  </si>
+  <si>
+    <t>IntGpCu</t>
+  </si>
+  <si>
+    <t>IntCont</t>
+  </si>
+  <si>
+    <t>Teacher interaction</t>
+  </si>
+  <si>
+    <t>Math teaching confidence</t>
+  </si>
+  <si>
+    <t>MCfInsp</t>
+  </si>
+  <si>
+    <t>MCfChal</t>
+  </si>
+  <si>
+    <t>MCfEnga</t>
+  </si>
+  <si>
+    <t>MCfAppr</t>
+  </si>
+  <si>
+    <t>MCfImpr</t>
+  </si>
+  <si>
+    <t>MCfProb</t>
+  </si>
+  <si>
+    <t>MCfAss</t>
+  </si>
+  <si>
+    <t>MCfRele</t>
+  </si>
+  <si>
+    <t>MCfHgTh</t>
+  </si>
+  <si>
+    <t>MPCConc</t>
+  </si>
+  <si>
+    <t>MPCPrac</t>
+  </si>
+  <si>
+    <t>MPCSear</t>
+  </si>
+  <si>
+    <t>MAsTest</t>
+  </si>
+  <si>
+    <t>MAsNati</t>
+  </si>
+  <si>
+    <t>(1=0) (2=3) (3=2) (4=1)</t>
+  </si>
+  <si>
+    <t>MPrpNum</t>
+  </si>
+  <si>
+    <t>MPrpSim</t>
+  </si>
+  <si>
+    <t>MPrpFac</t>
+  </si>
+  <si>
+    <t>MPrpFraC</t>
+  </si>
+  <si>
+    <t>MPrpFraU</t>
+  </si>
+  <si>
+    <t>Mathematics Homework for the TIMSS Class</t>
+  </si>
+  <si>
+    <t>Mathematics Assessment of the TIMSS Class</t>
+  </si>
+  <si>
+    <t>Preparation to Teach Mathematics</t>
+  </si>
+  <si>
+    <t>MPrpSent</t>
+  </si>
+  <si>
+    <t>MPrpDec</t>
+  </si>
+  <si>
+    <t>MPrpConc</t>
+  </si>
+  <si>
+    <t>MPrpPat</t>
+  </si>
+  <si>
+    <t>MPrpLine</t>
+  </si>
+  <si>
+    <t>MPrpAngl</t>
+  </si>
+  <si>
+    <t>MPrpCood</t>
+  </si>
+  <si>
+    <t>MPrpShap</t>
+  </si>
+  <si>
+    <t>MPrpRota</t>
+  </si>
+  <si>
+    <t>MTopDim</t>
+  </si>
+  <si>
+    <t>MPrpDim</t>
+  </si>
+  <si>
+    <t>MPrpArea</t>
+  </si>
+  <si>
+    <t>MPrpData</t>
+  </si>
+  <si>
+    <t>Science teaching confidence</t>
+  </si>
+  <si>
+    <t>SCfInsp</t>
+  </si>
+  <si>
+    <t>SCfExpl</t>
+  </si>
+  <si>
+    <t>SCfChal</t>
+  </si>
+  <si>
+    <t>SCfEnga</t>
+  </si>
+  <si>
+    <t>SCfAppr</t>
+  </si>
+  <si>
+    <t>SCfImpr</t>
+  </si>
+  <si>
+    <t>SCfAss</t>
+  </si>
+  <si>
+    <t>SCfRele</t>
+  </si>
+  <si>
+    <t>SCfHgTh</t>
+  </si>
+  <si>
+    <t>SCfInqu</t>
+  </si>
+  <si>
+    <t>SPCSear</t>
+  </si>
+  <si>
+    <t>SPCProc</t>
+  </si>
+  <si>
+    <t>SPCSimu</t>
+  </si>
+  <si>
+    <t>SPCSkil</t>
+  </si>
+  <si>
+    <t>Science Assessment of the TIMSS Class</t>
+  </si>
+  <si>
+    <t>MAsOngo</t>
+  </si>
+  <si>
+    <t>SAsOngo</t>
+  </si>
+  <si>
+    <t>SAsTest</t>
+  </si>
+  <si>
+    <t>SAsNati</t>
+  </si>
+  <si>
+    <t>Preparation to Teach Science</t>
+  </si>
+  <si>
+    <t>SCLRes</t>
+  </si>
+  <si>
+    <t>IDXRes</t>
+  </si>
+  <si>
+    <t>TIMSS compound variable: School conditions and resources</t>
+  </si>
+  <si>
+    <t>SCLChal</t>
+  </si>
+  <si>
+    <t>IDXChal</t>
+  </si>
+  <si>
+    <t>TIMSS compound variable: Challenge facing teachers</t>
+  </si>
+  <si>
+    <t>(1=0)  (2=1) (3=2) (4=3) (5=4) (6=5) (7=6)</t>
+  </si>
+  <si>
+    <t>(1=0) (2=1) (3=2) (4=3) (5=4) (6=5)</t>
+  </si>
+  <si>
+    <t>(1=0) (2=1)</t>
+  </si>
+  <si>
+    <t>Number of students in class</t>
+  </si>
+  <si>
+    <t>Number of students in Grade 4 class</t>
   </si>
 </sst>
 </file>
@@ -3412,7 +3640,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3422,6 +3650,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3438,7 +3678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3469,6 +3709,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5530,8 +5785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB5FA07-9B9D-4A17-BC77-5F8D8DD42BC3}">
   <dimension ref="A1:G305"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B262" sqref="B262"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="C159" sqref="C159:C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5885,7 +6140,7 @@
         <v>863</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>580</v>
@@ -5894,7 +6149,7 @@
         <v>99</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -5905,22 +6160,22 @@
         <v>864</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>581</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>975</v>
+        <v>1187</v>
       </c>
       <c r="F25" s="7">
         <v>9</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>300</v>
       </c>
@@ -5928,22 +6183,22 @@
         <v>865</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>582</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>976</v>
+        <v>1186</v>
       </c>
       <c r="F26" s="7">
         <v>9</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>301</v>
       </c>
@@ -5951,19 +6206,19 @@
         <v>866</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>583</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>977</v>
+        <v>1185</v>
       </c>
       <c r="F27" s="7">
         <v>99</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -5974,19 +6229,19 @@
         <v>867</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>584</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>978</v>
+        <v>955</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>862</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -5997,19 +6252,19 @@
         <v>867</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>585</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>978</v>
+        <v>955</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>862</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -6020,19 +6275,19 @@
         <v>867</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>586</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>978</v>
+        <v>955</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>862</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -6043,19 +6298,19 @@
         <v>867</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>587</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>978</v>
+        <v>955</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>862</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -6066,19 +6321,19 @@
         <v>867</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>588</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>978</v>
+        <v>955</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>862</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -6089,19 +6344,19 @@
         <v>867</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>589</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>978</v>
+        <v>955</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>862</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -6112,19 +6367,19 @@
         <v>868</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>590</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>978</v>
+        <v>955</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>862</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -6135,19 +6390,19 @@
         <v>868</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>591</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>978</v>
+        <v>955</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>862</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -6158,19 +6413,19 @@
         <v>868</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>592</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>978</v>
+        <v>955</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>862</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -6181,16 +6436,19 @@
         <v>868</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>593</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>978</v>
+        <v>955</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>862</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -6207,13 +6465,13 @@
         <v>594</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F38" s="7">
         <v>9</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -6230,13 +6488,13 @@
         <v>595</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F39" s="7">
         <v>9</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -6253,13 +6511,13 @@
         <v>596</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F40" s="7">
         <v>9</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -6276,13 +6534,13 @@
         <v>597</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F41" s="7">
         <v>9</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -6299,13 +6557,13 @@
         <v>598</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F42" s="7">
         <v>9</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -6322,13 +6580,13 @@
         <v>599</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F43" s="7">
         <v>9</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -6345,13 +6603,13 @@
         <v>600</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F44" s="7">
         <v>9</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -6368,13 +6626,13 @@
         <v>601</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F45" s="7">
         <v>9</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -6391,13 +6649,13 @@
         <v>602</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F46" s="7">
         <v>9</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -6414,13 +6672,13 @@
         <v>603</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F47" s="7">
         <v>9</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -6437,13 +6695,13 @@
         <v>604</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F48" s="7">
         <v>9</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -6460,13 +6718,13 @@
         <v>605</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F49" s="7">
         <v>9</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -6483,13 +6741,13 @@
         <v>606</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F50" s="7">
         <v>9</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -6506,13 +6764,13 @@
         <v>607</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F51" s="7">
         <v>9</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -6529,13 +6787,13 @@
         <v>608</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F52" s="7">
         <v>9</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -6552,13 +6810,13 @@
         <v>609</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F53" s="7">
         <v>9</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -6575,13 +6833,13 @@
         <v>610</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F54" s="7">
         <v>9</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -6592,19 +6850,19 @@
         <v>887</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>611</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F55" s="7">
         <v>9</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -6615,19 +6873,19 @@
         <v>887</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>612</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F56" s="7">
         <v>9</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -6638,19 +6896,19 @@
         <v>887</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>613</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F57" s="7">
         <v>9</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -6661,19 +6919,19 @@
         <v>887</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>614</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F58" s="7">
         <v>9</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -6684,19 +6942,19 @@
         <v>887</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>615</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F59" s="7">
         <v>9</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -6707,19 +6965,19 @@
         <v>887</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>616</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F60" s="7">
         <v>9</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -6730,19 +6988,19 @@
         <v>887</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>617</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F61" s="7">
         <v>9</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -6753,183 +7011,341 @@
         <v>887</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>618</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F62" s="7">
         <v>9</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>337</v>
       </c>
+      <c r="B63" s="11" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>1106</v>
+      </c>
       <c r="D63" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="E63" s="1"/>
+      <c r="E63" s="13" t="s">
+        <v>951</v>
+      </c>
       <c r="F63" s="7">
         <v>9</v>
       </c>
-      <c r="G63" s="1"/>
+      <c r="G63" s="1" t="s">
+        <v>953</v>
+      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>338</v>
       </c>
+      <c r="B64" s="11" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>1107</v>
+      </c>
       <c r="D64" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="E64" s="1"/>
+      <c r="E64" s="13" t="s">
+        <v>951</v>
+      </c>
       <c r="F64" s="7">
         <v>9</v>
       </c>
-      <c r="G64" s="1"/>
+      <c r="G64" s="1" t="s">
+        <v>953</v>
+      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>339</v>
       </c>
+      <c r="B65" s="11" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>1108</v>
+      </c>
       <c r="D65" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="E65" s="1"/>
+      <c r="E65" s="13" t="s">
+        <v>951</v>
+      </c>
       <c r="F65" s="7">
         <v>9</v>
       </c>
-      <c r="G65" s="1"/>
+      <c r="G65" s="1" t="s">
+        <v>953</v>
+      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>340</v>
       </c>
+      <c r="B66" s="11" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>1109</v>
+      </c>
       <c r="D66" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="E66" s="1"/>
+      <c r="E66" s="13" t="s">
+        <v>951</v>
+      </c>
       <c r="F66" s="7">
         <v>9</v>
       </c>
-      <c r="G66" s="1"/>
+      <c r="G66" s="1" t="s">
+        <v>953</v>
+      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>341</v>
       </c>
+      <c r="B67" s="11" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>1110</v>
+      </c>
       <c r="D67" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="E67" s="1"/>
+      <c r="E67" s="13" t="s">
+        <v>951</v>
+      </c>
       <c r="F67" s="7">
         <v>9</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>342</v>
       </c>
+      <c r="B68" s="11" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>1111</v>
+      </c>
       <c r="D68" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="E68" s="1"/>
+      <c r="E68" s="13" t="s">
+        <v>951</v>
+      </c>
       <c r="F68" s="7">
         <v>9</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>343</v>
       </c>
+      <c r="B69" s="11" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>1112</v>
+      </c>
       <c r="D69" s="5" t="s">
         <v>625</v>
       </c>
+      <c r="E69" s="13" t="s">
+        <v>951</v>
+      </c>
       <c r="F69" s="7">
         <v>9</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>344</v>
       </c>
+      <c r="B70" s="11" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>1113</v>
+      </c>
       <c r="D70" s="5" t="s">
         <v>626</v>
       </c>
+      <c r="E70" s="13" t="s">
+        <v>951</v>
+      </c>
       <c r="F70" s="7">
         <v>9</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>345</v>
       </c>
+      <c r="B71" s="11" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>1114</v>
+      </c>
       <c r="D71" s="5" t="s">
         <v>627</v>
       </c>
+      <c r="E71" s="13" t="s">
+        <v>951</v>
+      </c>
       <c r="F71" s="7">
         <v>9</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>346</v>
       </c>
+      <c r="B72" s="11" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>1115</v>
+      </c>
       <c r="D72" s="5" t="s">
         <v>628</v>
       </c>
+      <c r="E72" s="13" t="s">
+        <v>951</v>
+      </c>
       <c r="F72" s="7">
         <v>9</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>347</v>
       </c>
+      <c r="B73" s="11" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>1116</v>
+      </c>
       <c r="D73" s="5" t="s">
         <v>629</v>
       </c>
+      <c r="E73" s="13" t="s">
+        <v>951</v>
+      </c>
       <c r="F73" s="7">
         <v>9</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>348</v>
       </c>
+      <c r="B74" s="11" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>1117</v>
+      </c>
       <c r="D74" s="5" t="s">
         <v>630</v>
       </c>
+      <c r="E74" s="13" t="s">
+        <v>951</v>
+      </c>
       <c r="F74" s="7">
         <v>9</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>349</v>
       </c>
+      <c r="B75" s="11" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>1118</v>
+      </c>
       <c r="D75" s="5" t="s">
         <v>631</v>
       </c>
+      <c r="E75" s="13" t="s">
+        <v>951</v>
+      </c>
       <c r="F75" s="7">
         <v>9</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>350</v>
       </c>
+      <c r="B76" s="11" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>1119</v>
+      </c>
       <c r="D76" s="5" t="s">
         <v>632</v>
       </c>
+      <c r="E76" s="13" t="s">
+        <v>951</v>
+      </c>
       <c r="F76" s="7">
         <v>9</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -6946,13 +7362,13 @@
         <v>633</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F77" s="7">
         <v>9</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -6969,13 +7385,13 @@
         <v>634</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F78" s="7">
         <v>9</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -6992,13 +7408,13 @@
         <v>635</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F79" s="7">
         <v>9</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -7015,13 +7431,13 @@
         <v>636</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F80" s="7">
         <v>9</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -7038,13 +7454,13 @@
         <v>637</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F81" s="7">
         <v>9</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -7061,13 +7477,13 @@
         <v>638</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F82" s="7">
         <v>9</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -7084,13 +7500,13 @@
         <v>639</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F83" s="7">
         <v>9</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -7107,13 +7523,13 @@
         <v>640</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F84" s="7">
         <v>9</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -7130,13 +7546,13 @@
         <v>641</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F85" s="7">
         <v>9</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -7153,13 +7569,13 @@
         <v>642</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F86" s="7">
         <v>9</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -7176,13 +7592,13 @@
         <v>643</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F87" s="7">
         <v>9</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -7199,13 +7615,13 @@
         <v>644</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F88" s="7">
         <v>9</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -7222,13 +7638,13 @@
         <v>645</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F89" s="7">
         <v>9</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -7245,13 +7661,13 @@
         <v>646</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F90" s="7">
         <v>9</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -7268,13 +7684,13 @@
         <v>647</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F91" s="7">
         <v>9</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -7282,10 +7698,10 @@
         <v>366</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>905</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>906</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>648</v>
@@ -7302,10 +7718,10 @@
         <v>367</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>907</v>
+        <v>1189</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>649</v>
@@ -7322,10 +7738,10 @@
         <v>368</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>650</v>
@@ -7342,22 +7758,22 @@
         <v>369</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>651</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F95" s="7">
         <v>9</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -7365,22 +7781,22 @@
         <v>370</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>911</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>913</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>652</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F96" s="7">
         <v>9</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -7388,22 +7804,22 @@
         <v>371</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>653</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F97" s="7">
         <v>9</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -7411,22 +7827,22 @@
         <v>372</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>654</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F98" s="7">
         <v>9</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -7434,22 +7850,22 @@
         <v>373</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>655</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F99" s="7">
         <v>9</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -7457,22 +7873,22 @@
         <v>374</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>656</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F100" s="7">
         <v>9</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -7480,22 +7896,22 @@
         <v>375</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>657</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F101" s="7">
         <v>9</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -7503,22 +7919,22 @@
         <v>376</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>658</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F102" s="7">
         <v>9</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -7526,22 +7942,22 @@
         <v>377</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>659</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F103" s="7">
         <v>9</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -7549,22 +7965,22 @@
         <v>378</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>920</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>922</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>660</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F104" s="7">
         <v>9</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -7572,22 +7988,22 @@
         <v>379</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>661</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F105" s="7">
         <v>9</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -7595,22 +8011,22 @@
         <v>380</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>662</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F106" s="7">
         <v>9</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -7618,22 +8034,22 @@
         <v>381</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>663</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F107" s="7">
         <v>9</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -7641,22 +8057,22 @@
         <v>382</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>664</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F108" s="7">
         <v>9</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -7664,22 +8080,22 @@
         <v>383</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>665</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F109" s="7">
         <v>9</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -7687,10 +8103,10 @@
         <v>384</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>666</v>
@@ -7699,105 +8115,215 @@
       <c r="F110" s="7">
         <v>9999</v>
       </c>
+      <c r="G110" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>385</v>
       </c>
+      <c r="B111" s="11" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>1122</v>
+      </c>
       <c r="D111" s="5" t="s">
         <v>667</v>
       </c>
+      <c r="E111" s="13" t="s">
+        <v>951</v>
+      </c>
       <c r="F111" s="7">
         <v>9</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>386</v>
       </c>
+      <c r="B112" s="11" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>1127</v>
+      </c>
       <c r="D112" s="5" t="s">
         <v>668</v>
       </c>
+      <c r="E112" s="13" t="s">
+        <v>951</v>
+      </c>
       <c r="F112" s="7">
         <v>9</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C113" s="4"/>
+      <c r="B113" s="11" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C113" s="14" t="s">
+        <v>1123</v>
+      </c>
       <c r="D113" s="5" t="s">
         <v>669</v>
       </c>
+      <c r="E113" s="13" t="s">
+        <v>951</v>
+      </c>
       <c r="F113" s="7">
         <v>9</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>388</v>
       </c>
+      <c r="B114" s="11" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>1124</v>
+      </c>
       <c r="D114" s="5" t="s">
         <v>670</v>
       </c>
+      <c r="E114" s="13" t="s">
+        <v>951</v>
+      </c>
       <c r="F114" s="7">
         <v>9</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>389</v>
       </c>
+      <c r="B115" s="11" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>1125</v>
+      </c>
       <c r="D115" s="5" t="s">
         <v>671</v>
       </c>
+      <c r="E115" s="13" t="s">
+        <v>951</v>
+      </c>
       <c r="F115" s="7">
         <v>9</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>390</v>
       </c>
+      <c r="B116" s="11" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>1128</v>
+      </c>
       <c r="D116" s="5" t="s">
         <v>672</v>
       </c>
+      <c r="E116" s="13" t="s">
+        <v>951</v>
+      </c>
       <c r="F116" s="7">
         <v>9</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>391</v>
       </c>
+      <c r="B117" s="11" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>1126</v>
+      </c>
       <c r="D117" s="5" t="s">
         <v>673</v>
       </c>
+      <c r="E117" s="13" t="s">
+        <v>951</v>
+      </c>
       <c r="F117" s="7">
         <v>9</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>392</v>
       </c>
+      <c r="B118" s="11" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>1129</v>
+      </c>
       <c r="D118" s="5" t="s">
         <v>674</v>
       </c>
+      <c r="E118" s="13" t="s">
+        <v>951</v>
+      </c>
       <c r="F118" s="7">
         <v>9</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>393</v>
       </c>
+      <c r="B119" s="11" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>1130</v>
+      </c>
       <c r="D119" s="5" t="s">
         <v>675</v>
       </c>
+      <c r="E119" s="13" t="s">
+        <v>951</v>
+      </c>
       <c r="F119" s="7">
         <v>9</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -7805,22 +8331,22 @@
         <v>394</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>676</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F120" s="7">
         <v>9</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -7828,22 +8354,22 @@
         <v>395</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="C121" s="4" t="s">
         <v>930</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>932</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>677</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F121" s="7">
         <v>9</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -7851,22 +8377,22 @@
         <v>396</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>678</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F122" s="7">
         <v>9</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -7874,22 +8400,22 @@
         <v>397</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>679</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F123" s="7">
         <v>9</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -7897,22 +8423,22 @@
         <v>398</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>680</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F124" s="7">
         <v>9</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -7920,22 +8446,22 @@
         <v>399</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>681</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F125" s="7">
         <v>9</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -7943,22 +8469,22 @@
         <v>400</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>682</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F126" s="7">
         <v>9</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -7966,22 +8492,22 @@
         <v>401</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>683</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F127" s="7">
         <v>9</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -7989,22 +8515,22 @@
         <v>402</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>684</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F128" s="7">
         <v>9</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -8012,22 +8538,22 @@
         <v>403</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>685</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F129" s="7">
         <v>9</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -8035,22 +8561,22 @@
         <v>404</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>686</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F130" s="7">
         <v>9</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -8058,22 +8584,22 @@
         <v>405</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>687</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F131" s="7" t="s">
         <v>862</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -8081,22 +8607,22 @@
         <v>406</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>688</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F132" s="7" t="s">
         <v>862</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -8104,86 +8630,114 @@
         <v>407</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>689</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F133" s="7" t="s">
         <v>862</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="B134" s="1"/>
+      <c r="B134" s="13" t="s">
+        <v>940</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>1131</v>
+      </c>
       <c r="D134" s="5" t="s">
         <v>690</v>
       </c>
-      <c r="E134" s="1"/>
+      <c r="E134" s="13" t="s">
+        <v>951</v>
+      </c>
       <c r="F134" s="7" t="s">
         <v>862</v>
       </c>
-      <c r="G134" s="1"/>
+      <c r="G134" s="1" t="s">
+        <v>953</v>
+      </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="B135" s="1"/>
+      <c r="B135" s="13" t="s">
+        <v>940</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>1132</v>
+      </c>
       <c r="D135" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="E135" s="1"/>
+      <c r="E135" s="13" t="s">
+        <v>951</v>
+      </c>
       <c r="F135" s="7" t="s">
         <v>862</v>
       </c>
-      <c r="G135" s="1"/>
+      <c r="G135" s="1" t="s">
+        <v>953</v>
+      </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="B136" s="1"/>
+      <c r="B136" s="13" t="s">
+        <v>940</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>1133</v>
+      </c>
       <c r="D136" s="5" t="s">
         <v>692</v>
       </c>
+      <c r="E136" s="13" t="s">
+        <v>951</v>
+      </c>
       <c r="F136" s="7" t="s">
         <v>862</v>
       </c>
-      <c r="G136" s="1"/>
+      <c r="G136" s="1" t="s">
+        <v>953</v>
+      </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>411</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>693</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F137" s="7">
         <v>9</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -8191,22 +8745,22 @@
         <v>412</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>694</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F138" s="7">
         <v>9</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -8214,22 +8768,22 @@
         <v>413</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>695</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F139" s="7">
         <v>9</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -8237,22 +8791,22 @@
         <v>414</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>696</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F140" s="7">
         <v>9</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -8260,22 +8814,22 @@
         <v>415</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>697</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F141" s="7">
         <v>9</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -8283,22 +8837,22 @@
         <v>416</v>
       </c>
       <c r="B142" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="C142" s="4" t="s">
         <v>979</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>985</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>698</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F142" s="7">
         <v>9</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -8306,22 +8860,22 @@
         <v>417</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>699</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F143" s="7">
         <v>9</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -8329,22 +8883,22 @@
         <v>418</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>700</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F144" s="7">
         <v>9</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -8352,22 +8906,22 @@
         <v>419</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>701</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F145" s="7">
         <v>9</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -8375,22 +8929,22 @@
         <v>420</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>702</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F146" s="7">
         <v>9</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -8398,22 +8952,22 @@
         <v>421</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>703</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F147" s="7">
         <v>9</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -8421,22 +8975,22 @@
         <v>422</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>704</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F148" s="7">
         <v>9</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -8444,22 +8998,22 @@
         <v>423</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>705</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F149" s="7">
         <v>9</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -8467,22 +9021,22 @@
         <v>424</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>996</v>
+        <v>1154</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>706</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F150" s="7">
         <v>9</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -8490,22 +9044,22 @@
         <v>425</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="D151" s="5" t="s">
         <v>707</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F151" s="7">
         <v>9</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -8513,22 +9067,22 @@
         <v>426</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>708</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F152" s="7">
         <v>9</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -8536,22 +9090,22 @@
         <v>427</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>709</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F153" s="7">
         <v>9</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -8559,22 +9113,22 @@
         <v>428</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>997</v>
+        <v>1142</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>710</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="F154" s="7">
         <v>9</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -8582,22 +9136,22 @@
         <v>429</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>997</v>
+        <v>1142</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>711</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="F155" s="7" t="s">
         <v>862</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -8605,22 +9159,22 @@
         <v>430</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>1000</v>
+        <v>1142</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>712</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F156" s="7" t="s">
         <v>862</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -8628,22 +9182,22 @@
         <v>431</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>1000</v>
+        <v>1142</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
       <c r="D157" s="5" t="s">
         <v>713</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F157" s="7" t="s">
         <v>862</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -8651,84 +9205,114 @@
         <v>432</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1000</v>
+        <v>1142</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>714</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F158" s="7" t="s">
         <v>862</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="B159" s="1"/>
+      <c r="B159" s="13" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C159" s="12" t="s">
+        <v>1174</v>
+      </c>
       <c r="D159" s="5" t="s">
         <v>715</v>
       </c>
+      <c r="E159" s="13" t="s">
+        <v>954</v>
+      </c>
       <c r="F159" s="7">
         <v>9</v>
       </c>
-      <c r="G159" s="1"/>
+      <c r="G159" s="1" t="s">
+        <v>953</v>
+      </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="B160" s="1"/>
+      <c r="B160" s="13" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C160" s="12" t="s">
+        <v>1134</v>
+      </c>
       <c r="D160" s="5" t="s">
         <v>716</v>
       </c>
+      <c r="E160" s="13" t="s">
+        <v>954</v>
+      </c>
       <c r="F160" s="7">
         <v>9</v>
       </c>
-      <c r="G160" s="1"/>
+      <c r="G160" s="1" t="s">
+        <v>953</v>
+      </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="B161" s="1"/>
+      <c r="B161" s="13" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C161" s="12" t="s">
+        <v>1135</v>
+      </c>
       <c r="D161" s="5" t="s">
         <v>717</v>
       </c>
+      <c r="E161" s="13" t="s">
+        <v>954</v>
+      </c>
       <c r="F161" s="7">
         <v>9</v>
       </c>
-      <c r="G161" s="1"/>
+      <c r="G161" s="1" t="s">
+        <v>953</v>
+      </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>436</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="D162" s="5" t="s">
         <v>718</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="F162" s="7">
         <v>9</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -8736,22 +9320,22 @@
         <v>437</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>719</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="F163" s="7">
         <v>9</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -8759,22 +9343,22 @@
         <v>438</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="D164" s="5" t="s">
         <v>720</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="F164" s="7">
         <v>9</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -8782,22 +9366,22 @@
         <v>439</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>1078</v>
+        <v>1069</v>
       </c>
       <c r="D165" s="5" t="s">
         <v>721</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="F165" s="7">
         <v>9</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -8805,22 +9389,22 @@
         <v>440</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>1013</v>
+        <v>1004</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>722</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="F166" s="7">
         <v>9</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -8828,22 +9412,22 @@
         <v>441</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>723</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="F167" s="7">
         <v>9</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -8851,22 +9435,22 @@
         <v>442</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>1015</v>
+        <v>1006</v>
       </c>
       <c r="D168" s="5" t="s">
         <v>724</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="F168" s="7">
         <v>9</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -8874,213 +9458,413 @@
         <v>443</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>1007</v>
+        <v>998</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="D169" s="5" t="s">
         <v>725</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="F169" s="7">
         <v>9</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>444</v>
       </c>
+      <c r="B170" s="11" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C170" s="12" t="s">
+        <v>1137</v>
+      </c>
       <c r="D170" s="5" t="s">
         <v>726</v>
       </c>
+      <c r="E170" s="15" t="s">
+        <v>1136</v>
+      </c>
       <c r="F170" s="7">
         <v>9</v>
       </c>
-      <c r="G170" s="1"/>
+      <c r="G170" s="1" t="s">
+        <v>953</v>
+      </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>445</v>
       </c>
+      <c r="B171" s="11" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C171" s="12" t="s">
+        <v>1138</v>
+      </c>
       <c r="D171" s="5" t="s">
         <v>727</v>
       </c>
+      <c r="E171" s="15" t="s">
+        <v>1136</v>
+      </c>
       <c r="F171" s="7">
         <v>9</v>
       </c>
-      <c r="G171" s="1"/>
+      <c r="G171" s="1" t="s">
+        <v>953</v>
+      </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>446</v>
       </c>
+      <c r="B172" s="11" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C172" s="12" t="s">
+        <v>1139</v>
+      </c>
       <c r="D172" s="5" t="s">
         <v>728</v>
       </c>
+      <c r="E172" s="15" t="s">
+        <v>1136</v>
+      </c>
       <c r="F172" s="7">
         <v>9</v>
       </c>
-      <c r="G172" s="1"/>
+      <c r="G172" s="1" t="s">
+        <v>953</v>
+      </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>447</v>
       </c>
+      <c r="B173" s="11" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C173" s="12" t="s">
+        <v>1140</v>
+      </c>
       <c r="D173" s="5" t="s">
         <v>729</v>
       </c>
+      <c r="E173" s="15" t="s">
+        <v>1136</v>
+      </c>
       <c r="F173" s="7">
         <v>9</v>
       </c>
-      <c r="G173" s="1"/>
+      <c r="G173" s="1" t="s">
+        <v>953</v>
+      </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>448</v>
       </c>
+      <c r="B174" s="11" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C174" s="12" t="s">
+        <v>1141</v>
+      </c>
       <c r="D174" s="5" t="s">
         <v>730</v>
       </c>
+      <c r="E174" s="15" t="s">
+        <v>1136</v>
+      </c>
       <c r="F174" s="7">
         <v>9</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>449</v>
       </c>
+      <c r="B175" s="11" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C175" s="12" t="s">
+        <v>1146</v>
+      </c>
       <c r="D175" s="5" t="s">
         <v>731</v>
       </c>
+      <c r="E175" s="15" t="s">
+        <v>1136</v>
+      </c>
       <c r="F175" s="7">
         <v>9</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>450</v>
       </c>
+      <c r="B176" s="11" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C176" s="12" t="s">
+        <v>1145</v>
+      </c>
       <c r="D176" s="5" t="s">
         <v>732</v>
       </c>
+      <c r="E176" s="15" t="s">
+        <v>1136</v>
+      </c>
       <c r="F176" s="7">
         <v>9</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>451</v>
       </c>
+      <c r="B177" s="11" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C177" s="12" t="s">
+        <v>1148</v>
+      </c>
       <c r="D177" s="5" t="s">
         <v>733</v>
       </c>
+      <c r="E177" s="15" t="s">
+        <v>1136</v>
+      </c>
       <c r="F177" s="7">
         <v>9</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>452</v>
       </c>
+      <c r="B178" s="11" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C178" s="12" t="s">
+        <v>1149</v>
+      </c>
       <c r="D178" s="5" t="s">
         <v>734</v>
       </c>
+      <c r="E178" s="15" t="s">
+        <v>1136</v>
+      </c>
       <c r="F178" s="7">
         <v>9</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>453</v>
       </c>
+      <c r="B179" s="11" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C179" s="12" t="s">
+        <v>1150</v>
+      </c>
       <c r="D179" s="5" t="s">
         <v>735</v>
       </c>
+      <c r="E179" s="15" t="s">
+        <v>1136</v>
+      </c>
       <c r="F179" s="7">
         <v>9</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>454</v>
       </c>
+      <c r="B180" s="11" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C180" s="12" t="s">
+        <v>1151</v>
+      </c>
       <c r="D180" s="5" t="s">
         <v>736</v>
       </c>
+      <c r="E180" s="15" t="s">
+        <v>1136</v>
+      </c>
       <c r="F180" s="7">
         <v>9</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>455</v>
       </c>
+      <c r="B181" s="11" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C181" s="12" t="s">
+        <v>1152</v>
+      </c>
       <c r="D181" s="5" t="s">
         <v>737</v>
       </c>
+      <c r="E181" s="15" t="s">
+        <v>1136</v>
+      </c>
       <c r="F181" s="7">
         <v>9</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>456</v>
       </c>
+      <c r="B182" s="11" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C182" s="12" t="s">
+        <v>1153</v>
+      </c>
       <c r="D182" s="5" t="s">
         <v>738</v>
       </c>
+      <c r="E182" s="15" t="s">
+        <v>1136</v>
+      </c>
       <c r="F182" s="7">
         <v>9</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>457</v>
       </c>
+      <c r="B183" s="11" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C183" s="12" t="s">
+        <v>1155</v>
+      </c>
       <c r="D183" s="5" t="s">
         <v>739</v>
       </c>
+      <c r="E183" s="15" t="s">
+        <v>1136</v>
+      </c>
       <c r="F183" s="7">
         <v>9</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
         <v>458</v>
       </c>
+      <c r="B184" s="11" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C184" s="12" t="s">
+        <v>1156</v>
+      </c>
       <c r="D184" s="5" t="s">
         <v>740</v>
       </c>
+      <c r="E184" s="15" t="s">
+        <v>1136</v>
+      </c>
       <c r="F184" s="7">
         <v>9</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
         <v>459</v>
       </c>
+      <c r="B185" s="11" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C185" s="12" t="s">
+        <v>1157</v>
+      </c>
       <c r="D185" s="5" t="s">
         <v>741</v>
       </c>
+      <c r="E185" s="15" t="s">
+        <v>1136</v>
+      </c>
       <c r="F185" s="7">
         <v>9</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
         <v>460</v>
       </c>
+      <c r="B186" s="11" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C186" s="12" t="s">
+        <v>1147</v>
+      </c>
       <c r="D186" s="5" t="s">
         <v>742</v>
       </c>
+      <c r="E186" s="15" t="s">
+        <v>1136</v>
+      </c>
       <c r="F186" s="7">
         <v>9</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -9088,22 +9872,22 @@
         <v>461</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>1018</v>
+        <v>1009</v>
       </c>
       <c r="D187" s="5" t="s">
         <v>743</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="F187" s="7">
         <v>9</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -9111,10 +9895,10 @@
         <v>462</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="D188" s="5" t="s">
         <v>744</v>
@@ -9130,110 +9914,230 @@
       <c r="A189" s="5" t="s">
         <v>463</v>
       </c>
+      <c r="B189" s="11" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C189" s="12" t="s">
+        <v>1159</v>
+      </c>
       <c r="D189" s="5" t="s">
         <v>745</v>
       </c>
+      <c r="E189" s="13" t="s">
+        <v>951</v>
+      </c>
       <c r="F189" s="7">
         <v>9</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>464</v>
       </c>
+      <c r="B190" s="11" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C190" s="12" t="s">
+        <v>1160</v>
+      </c>
       <c r="D190" s="5" t="s">
         <v>746</v>
       </c>
+      <c r="E190" s="13" t="s">
+        <v>951</v>
+      </c>
       <c r="F190" s="7">
         <v>9</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>465</v>
       </c>
+      <c r="B191" s="11" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C191" s="14" t="s">
+        <v>1161</v>
+      </c>
       <c r="D191" s="5" t="s">
         <v>747</v>
       </c>
+      <c r="E191" s="13" t="s">
+        <v>951</v>
+      </c>
       <c r="F191" s="7">
         <v>9</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>466</v>
       </c>
+      <c r="B192" s="11" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C192" s="12" t="s">
+        <v>1162</v>
+      </c>
       <c r="D192" s="5" t="s">
         <v>748</v>
       </c>
+      <c r="E192" s="13" t="s">
+        <v>951</v>
+      </c>
       <c r="F192" s="7">
         <v>9</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>467</v>
       </c>
+      <c r="B193" s="11" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C193" s="12" t="s">
+        <v>1163</v>
+      </c>
       <c r="D193" s="5" t="s">
         <v>749</v>
       </c>
+      <c r="E193" s="13" t="s">
+        <v>951</v>
+      </c>
       <c r="F193" s="7">
         <v>9</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>468</v>
       </c>
+      <c r="B194" s="11" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C194" s="12" t="s">
+        <v>1165</v>
+      </c>
       <c r="D194" s="5" t="s">
         <v>750</v>
       </c>
+      <c r="E194" s="13" t="s">
+        <v>951</v>
+      </c>
       <c r="F194" s="7">
         <v>9</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>469</v>
       </c>
+      <c r="B195" s="11" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C195" s="12" t="s">
+        <v>1164</v>
+      </c>
       <c r="D195" s="5" t="s">
         <v>751</v>
       </c>
+      <c r="E195" s="13" t="s">
+        <v>951</v>
+      </c>
       <c r="F195" s="7">
         <v>9</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>470</v>
       </c>
+      <c r="B196" s="11" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C196" s="12" t="s">
+        <v>1166</v>
+      </c>
       <c r="D196" s="5" t="s">
         <v>752</v>
       </c>
+      <c r="E196" s="13" t="s">
+        <v>951</v>
+      </c>
       <c r="F196" s="7">
         <v>9</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>471</v>
       </c>
+      <c r="B197" s="11" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C197" s="12" t="s">
+        <v>1167</v>
+      </c>
       <c r="D197" s="5" t="s">
         <v>753</v>
       </c>
+      <c r="E197" s="13" t="s">
+        <v>951</v>
+      </c>
       <c r="F197" s="7">
         <v>9</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>472</v>
       </c>
+      <c r="B198" s="11" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C198" s="12" t="s">
+        <v>1168</v>
+      </c>
       <c r="D198" s="5" t="s">
         <v>754</v>
       </c>
+      <c r="E198" s="13" t="s">
+        <v>951</v>
+      </c>
       <c r="F198" s="7">
         <v>9</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -9241,22 +10145,22 @@
         <v>473</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>1022</v>
+        <v>1013</v>
       </c>
       <c r="D199" s="5" t="s">
         <v>755</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F199" s="7">
         <v>9</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -9264,22 +10168,22 @@
         <v>474</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="D200" s="5" t="s">
         <v>756</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F200" s="7">
         <v>9</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -9287,22 +10191,22 @@
         <v>475</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>1024</v>
+        <v>1015</v>
       </c>
       <c r="D201" s="5" t="s">
         <v>757</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F201" s="7">
         <v>9</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -9310,22 +10214,22 @@
         <v>476</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>1025</v>
+        <v>1016</v>
       </c>
       <c r="D202" s="5" t="s">
         <v>758</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F202" s="7">
         <v>9</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -9333,22 +10237,22 @@
         <v>477</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="D203" s="5" t="s">
         <v>759</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F203" s="7">
         <v>9</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -9356,22 +10260,22 @@
         <v>478</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>1027</v>
+        <v>1018</v>
       </c>
       <c r="D204" s="5" t="s">
         <v>760</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F204" s="7">
         <v>9</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -9379,22 +10283,22 @@
         <v>479</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>1028</v>
+        <v>1019</v>
       </c>
       <c r="D205" s="5" t="s">
         <v>761</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F205" s="7">
         <v>9</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -9402,22 +10306,22 @@
         <v>480</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
       <c r="D206" s="5" t="s">
         <v>762</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F206" s="7">
         <v>9</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -9425,22 +10329,22 @@
         <v>481</v>
       </c>
       <c r="B207" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C207" s="4" t="s">
         <v>1021</v>
-      </c>
-      <c r="C207" s="4" t="s">
-        <v>1030</v>
       </c>
       <c r="D207" s="5" t="s">
         <v>763</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F207" s="7">
         <v>9</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -9448,22 +10352,22 @@
         <v>482</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>1031</v>
+        <v>1022</v>
       </c>
       <c r="D208" s="5" t="s">
         <v>764</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F208" s="7">
         <v>9</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -9471,22 +10375,22 @@
         <v>483</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>1032</v>
+        <v>1023</v>
       </c>
       <c r="D209" s="5" t="s">
         <v>765</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F209" s="7">
         <v>9</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -9494,22 +10398,22 @@
         <v>484</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>1035</v>
+        <v>1026</v>
       </c>
       <c r="D210" s="5" t="s">
         <v>766</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F210" s="7">
         <v>9</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -9517,22 +10421,22 @@
         <v>485</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>1033</v>
+        <v>1024</v>
       </c>
       <c r="D211" s="5" t="s">
         <v>767</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F211" s="7">
         <v>9</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -9540,22 +10444,22 @@
         <v>486</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>1034</v>
+        <v>1025</v>
       </c>
       <c r="D212" s="5" t="s">
         <v>768</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F212" s="7">
         <v>9</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -9563,22 +10467,22 @@
         <v>487</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>1036</v>
+        <v>1027</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>1037</v>
+        <v>1028</v>
       </c>
       <c r="D213" s="5" t="s">
         <v>769</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="F213" s="7">
         <v>9</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -9586,22 +10490,22 @@
         <v>488</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>1039</v>
+        <v>1030</v>
       </c>
       <c r="D214" s="5" t="s">
         <v>770</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F214" s="7" t="s">
         <v>862</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -9609,22 +10513,22 @@
         <v>489</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>1040</v>
+        <v>1031</v>
       </c>
       <c r="D215" s="5" t="s">
         <v>771</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F215" s="7" t="s">
         <v>862</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -9632,66 +10536,114 @@
         <v>490</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>1041</v>
+        <v>1032</v>
       </c>
       <c r="D216" s="5" t="s">
         <v>772</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F216" s="7" t="s">
         <v>862</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
         <v>491</v>
       </c>
+      <c r="B217" s="13" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C217" s="12" t="s">
+        <v>1172</v>
+      </c>
       <c r="D217" s="5" t="s">
         <v>773</v>
       </c>
+      <c r="E217" s="13" t="s">
+        <v>951</v>
+      </c>
       <c r="F217" s="7" t="s">
         <v>862</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
         <v>492</v>
       </c>
+      <c r="B218" s="13" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C218" s="12" t="s">
+        <v>1169</v>
+      </c>
       <c r="D218" s="5" t="s">
         <v>774</v>
       </c>
+      <c r="E218" s="13" t="s">
+        <v>951</v>
+      </c>
       <c r="F218" s="7" t="s">
         <v>862</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
         <v>493</v>
       </c>
+      <c r="B219" s="13" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C219" s="12" t="s">
+        <v>1170</v>
+      </c>
       <c r="D219" s="5" t="s">
         <v>775</v>
       </c>
+      <c r="E219" s="13" t="s">
+        <v>951</v>
+      </c>
       <c r="F219" s="7" t="s">
         <v>862</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
         <v>494</v>
       </c>
+      <c r="B220" s="13" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C220" s="12" t="s">
+        <v>1171</v>
+      </c>
       <c r="D220" s="5" t="s">
         <v>776</v>
       </c>
+      <c r="E220" s="13" t="s">
+        <v>951</v>
+      </c>
       <c r="F220" s="7" t="s">
         <v>862</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -9699,22 +10651,22 @@
         <v>495</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>1042</v>
+        <v>1033</v>
       </c>
       <c r="D221" s="5" t="s">
         <v>777</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F221" s="7">
         <v>9</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -9722,22 +10674,22 @@
         <v>496</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>1043</v>
+        <v>1034</v>
       </c>
       <c r="D222" s="5" t="s">
         <v>778</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F222" s="7">
         <v>9</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -9745,22 +10697,22 @@
         <v>497</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>1044</v>
+        <v>1035</v>
       </c>
       <c r="D223" s="5" t="s">
         <v>779</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F223" s="7">
         <v>9</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -9768,22 +10720,22 @@
         <v>498</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>1045</v>
+        <v>1036</v>
       </c>
       <c r="D224" s="5" t="s">
         <v>780</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F224" s="7">
         <v>9</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -9791,22 +10743,22 @@
         <v>499</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>1059</v>
+        <v>1050</v>
       </c>
       <c r="D225" s="5" t="s">
         <v>781</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F225" s="7">
         <v>9</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -9814,22 +10766,22 @@
         <v>500</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>1060</v>
+        <v>1051</v>
       </c>
       <c r="D226" s="5" t="s">
         <v>782</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F226" s="7">
         <v>9</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -9837,22 +10789,22 @@
         <v>501</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>1046</v>
+        <v>1037</v>
       </c>
       <c r="D227" s="5" t="s">
         <v>783</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F227" s="7">
         <v>9</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -9860,22 +10812,22 @@
         <v>502</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>1047</v>
+        <v>1038</v>
       </c>
       <c r="D228" s="5" t="s">
         <v>784</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F228" s="7">
         <v>9</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -9883,22 +10835,22 @@
         <v>503</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>1048</v>
+        <v>1039</v>
       </c>
       <c r="D229" s="5" t="s">
         <v>785</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F229" s="7">
         <v>9</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -9906,22 +10858,22 @@
         <v>504</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>1049</v>
+        <v>1040</v>
       </c>
       <c r="D230" s="5" t="s">
         <v>786</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F230" s="7">
         <v>9</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -9929,22 +10881,22 @@
         <v>505</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>1061</v>
+        <v>1052</v>
       </c>
       <c r="D231" s="5" t="s">
         <v>787</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F231" s="7">
         <v>9</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -9952,22 +10904,22 @@
         <v>506</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>1051</v>
+        <v>1042</v>
       </c>
       <c r="D232" s="5" t="s">
         <v>788</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F232" s="7">
         <v>9</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -9975,22 +10927,22 @@
         <v>507</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>1052</v>
+        <v>1043</v>
       </c>
       <c r="D233" s="5" t="s">
         <v>789</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F233" s="7">
         <v>9</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -9998,22 +10950,22 @@
         <v>508</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>1053</v>
+        <v>1044</v>
       </c>
       <c r="D234" s="5" t="s">
         <v>790</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F234" s="7">
         <v>9</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -10021,22 +10973,22 @@
         <v>509</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>1050</v>
+        <v>1041</v>
       </c>
       <c r="D235" s="5" t="s">
         <v>791</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F235" s="7">
         <v>9</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -10044,22 +10996,22 @@
         <v>510</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>1054</v>
+        <v>1045</v>
       </c>
       <c r="D236" s="5" t="s">
         <v>792</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F236" s="7">
         <v>9</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -10067,22 +11019,22 @@
         <v>511</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>1062</v>
+        <v>1053</v>
       </c>
       <c r="D237" s="5" t="s">
         <v>793</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F237" s="7">
         <v>9</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -10090,22 +11042,22 @@
         <v>512</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>1063</v>
+        <v>1054</v>
       </c>
       <c r="D238" s="5" t="s">
         <v>794</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F238" s="7">
         <v>9</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -10113,22 +11065,22 @@
         <v>513</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>1064</v>
+        <v>1055</v>
       </c>
       <c r="D239" s="5" t="s">
         <v>795</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F239" s="7">
         <v>9</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -10136,22 +11088,22 @@
         <v>514</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>1055</v>
+        <v>1046</v>
       </c>
       <c r="D240" s="5" t="s">
         <v>796</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F240" s="7">
         <v>9</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -10159,22 +11111,22 @@
         <v>515</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>1056</v>
+        <v>1047</v>
       </c>
       <c r="D241" s="5" t="s">
         <v>797</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F241" s="7">
         <v>9</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -10182,22 +11134,22 @@
         <v>516</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>1057</v>
+        <v>1048</v>
       </c>
       <c r="D242" s="5" t="s">
         <v>798</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F242" s="7">
         <v>9</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -10205,22 +11157,22 @@
         <v>517</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>1065</v>
+        <v>1056</v>
       </c>
       <c r="D243" s="5" t="s">
         <v>799</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="F243" s="7">
         <v>9</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -10228,22 +11180,22 @@
         <v>518</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>1066</v>
+        <v>1057</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>1067</v>
+        <v>1058</v>
       </c>
       <c r="D244" s="5" t="s">
         <v>800</v>
       </c>
       <c r="E244" s="10" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="F244" s="7">
         <v>9</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -10251,22 +11203,22 @@
         <v>519</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>1066</v>
+        <v>1057</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>1068</v>
+        <v>1059</v>
       </c>
       <c r="D245" s="5" t="s">
         <v>801</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="F245" s="7" t="s">
         <v>862</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -10274,22 +11226,22 @@
         <v>520</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>1069</v>
+        <v>1060</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>1070</v>
+        <v>1061</v>
       </c>
       <c r="D246" s="5" t="s">
         <v>802</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F246" s="7" t="s">
         <v>862</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -10297,22 +11249,22 @@
         <v>521</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>1069</v>
+        <v>1060</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>1071</v>
+        <v>1062</v>
       </c>
       <c r="D247" s="5" t="s">
         <v>803</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F247" s="7" t="s">
         <v>862</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -10320,58 +11272,91 @@
         <v>522</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>1069</v>
+        <v>1060</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>1072</v>
+        <v>1063</v>
       </c>
       <c r="D248" s="5" t="s">
         <v>804</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F248" s="7" t="s">
         <v>862</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
         <v>523</v>
       </c>
+      <c r="B249" s="13" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C249" s="12" t="s">
+        <v>1175</v>
+      </c>
       <c r="D249" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="E249" s="1"/>
+      <c r="E249" s="13" t="s">
+        <v>954</v>
+      </c>
       <c r="F249" s="7">
         <v>9</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
         <v>524</v>
       </c>
+      <c r="B250" s="13" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C250" s="12" t="s">
+        <v>1176</v>
+      </c>
       <c r="D250" s="5" t="s">
         <v>806</v>
       </c>
-      <c r="E250" s="1"/>
+      <c r="E250" s="13" t="s">
+        <v>954</v>
+      </c>
       <c r="F250" s="7">
         <v>9</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
         <v>525</v>
       </c>
+      <c r="B251" s="13" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C251" s="12" t="s">
+        <v>1177</v>
+      </c>
       <c r="D251" s="5" t="s">
         <v>807</v>
       </c>
-      <c r="E251" s="1"/>
+      <c r="E251" s="13" t="s">
+        <v>954</v>
+      </c>
       <c r="F251" s="7">
         <v>9</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -10379,22 +11364,22 @@
         <v>526</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>1073</v>
+        <v>1064</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>1074</v>
+        <v>1065</v>
       </c>
       <c r="D252" s="5" t="s">
         <v>808</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="F252" s="7">
         <v>9</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -10402,22 +11387,22 @@
         <v>527</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>1073</v>
+        <v>1064</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>1075</v>
+        <v>1066</v>
       </c>
       <c r="D253" s="5" t="s">
         <v>809</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="F253" s="7">
         <v>9</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -10425,22 +11410,22 @@
         <v>528</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>1073</v>
+        <v>1064</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>1076</v>
+        <v>1067</v>
       </c>
       <c r="D254" s="5" t="s">
         <v>810</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="F254" s="7">
         <v>9</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -10448,22 +11433,22 @@
         <v>529</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>1073</v>
+        <v>1064</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>1077</v>
+        <v>1068</v>
       </c>
       <c r="D255" s="5" t="s">
         <v>811</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="F255" s="7">
         <v>9</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -10471,22 +11456,22 @@
         <v>530</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>1073</v>
+        <v>1064</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>1079</v>
+        <v>1070</v>
       </c>
       <c r="D256" s="5" t="s">
         <v>812</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="F256" s="7">
         <v>9</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -10494,22 +11479,22 @@
         <v>531</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>1073</v>
+        <v>1064</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="D257" s="5" t="s">
         <v>813</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="F257" s="7">
         <v>9</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -10517,22 +11502,22 @@
         <v>532</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1073</v>
+        <v>1064</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="D258" s="5" t="s">
         <v>814</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="F258" s="7">
         <v>9</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -10540,22 +11525,22 @@
         <v>533</v>
       </c>
       <c r="B259" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C259" s="6" t="s">
         <v>1073</v>
-      </c>
-      <c r="C259" s="6" t="s">
-        <v>1082</v>
       </c>
       <c r="D259" s="5" t="s">
         <v>815</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="F259" s="7">
         <v>9</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -10563,278 +11548,551 @@
         <v>534</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>1083</v>
+        <v>1074</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="D260" s="5" t="s">
         <v>816</v>
       </c>
       <c r="E260" s="10" t="s">
-        <v>1085</v>
+        <v>1076</v>
       </c>
       <c r="F260" s="7">
         <v>9</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
         <v>535</v>
       </c>
+      <c r="B261" s="11" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C261" s="14" t="s">
+        <v>1033</v>
+      </c>
       <c r="D261" s="5" t="s">
         <v>817</v>
       </c>
-      <c r="E261" s="1"/>
+      <c r="E261" s="15" t="s">
+        <v>1136</v>
+      </c>
       <c r="F261" s="7">
         <v>9</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
         <v>536</v>
       </c>
+      <c r="B262" s="11" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C262" s="14" t="s">
+        <v>1034</v>
+      </c>
       <c r="D262" s="5" t="s">
         <v>818</v>
       </c>
-      <c r="E262" s="1"/>
+      <c r="E262" s="15" t="s">
+        <v>1136</v>
+      </c>
       <c r="F262" s="7">
         <v>9</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
         <v>537</v>
       </c>
+      <c r="B263" s="11" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C263" s="14" t="s">
+        <v>1035</v>
+      </c>
       <c r="D263" s="5" t="s">
         <v>819</v>
       </c>
+      <c r="E263" s="15" t="s">
+        <v>1136</v>
+      </c>
       <c r="F263" s="7">
         <v>9</v>
+      </c>
+      <c r="G263" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
         <v>538</v>
       </c>
+      <c r="B264" s="11" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C264" s="14" t="s">
+        <v>1036</v>
+      </c>
       <c r="D264" s="5" t="s">
         <v>820</v>
       </c>
-      <c r="E264" s="1"/>
+      <c r="E264" s="15" t="s">
+        <v>1136</v>
+      </c>
       <c r="F264" s="7">
         <v>9</v>
+      </c>
+      <c r="G264" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
         <v>539</v>
       </c>
+      <c r="B265" s="11" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C265" s="12" t="s">
+        <v>1050</v>
+      </c>
       <c r="D265" s="5" t="s">
         <v>821</v>
       </c>
+      <c r="E265" s="15" t="s">
+        <v>1136</v>
+      </c>
       <c r="F265" s="7">
         <v>9</v>
+      </c>
+      <c r="G265" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
         <v>540</v>
       </c>
+      <c r="B266" s="11" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C266" s="12" t="s">
+        <v>1051</v>
+      </c>
       <c r="D266" s="5" t="s">
         <v>822</v>
       </c>
+      <c r="E266" s="15" t="s">
+        <v>1136</v>
+      </c>
       <c r="F266" s="7">
         <v>9</v>
+      </c>
+      <c r="G266" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
         <v>541</v>
       </c>
+      <c r="B267" s="11" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C267" s="14" t="s">
+        <v>1037</v>
+      </c>
       <c r="D267" s="5" t="s">
         <v>823</v>
       </c>
+      <c r="E267" s="15" t="s">
+        <v>1136</v>
+      </c>
       <c r="F267" s="7">
         <v>9</v>
+      </c>
+      <c r="G267" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
         <v>542</v>
       </c>
+      <c r="B268" s="11" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C268" s="14" t="s">
+        <v>1038</v>
+      </c>
       <c r="D268" s="5" t="s">
         <v>824</v>
       </c>
+      <c r="E268" s="15" t="s">
+        <v>1136</v>
+      </c>
       <c r="F268" s="7">
         <v>9</v>
+      </c>
+      <c r="G268" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
         <v>543</v>
       </c>
+      <c r="B269" s="11" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C269" s="14" t="s">
+        <v>1039</v>
+      </c>
       <c r="D269" s="5" t="s">
         <v>825</v>
       </c>
+      <c r="E269" s="15" t="s">
+        <v>1136</v>
+      </c>
       <c r="F269" s="7">
         <v>9</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
         <v>544</v>
       </c>
+      <c r="B270" s="11" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C270" s="14" t="s">
+        <v>1040</v>
+      </c>
       <c r="D270" s="5" t="s">
         <v>826</v>
       </c>
+      <c r="E270" s="15" t="s">
+        <v>1136</v>
+      </c>
       <c r="F270" s="7">
         <v>9</v>
+      </c>
+      <c r="G270" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
         <v>545</v>
       </c>
+      <c r="B271" s="11" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C271" s="12" t="s">
+        <v>1052</v>
+      </c>
       <c r="D271" s="5" t="s">
         <v>827</v>
       </c>
+      <c r="E271" s="15" t="s">
+        <v>1136</v>
+      </c>
       <c r="F271" s="7">
         <v>9</v>
+      </c>
+      <c r="G271" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
         <v>546</v>
       </c>
+      <c r="B272" s="11" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C272" s="14" t="s">
+        <v>1042</v>
+      </c>
       <c r="D272" s="5" t="s">
         <v>828</v>
       </c>
+      <c r="E272" s="15" t="s">
+        <v>1136</v>
+      </c>
       <c r="F272" s="7">
         <v>9</v>
+      </c>
+      <c r="G272" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
         <v>547</v>
       </c>
+      <c r="B273" s="11" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C273" s="14" t="s">
+        <v>1043</v>
+      </c>
       <c r="D273" s="5" t="s">
         <v>829</v>
       </c>
+      <c r="E273" s="15" t="s">
+        <v>1136</v>
+      </c>
       <c r="F273" s="7">
         <v>9</v>
+      </c>
+      <c r="G273" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
         <v>548</v>
       </c>
+      <c r="B274" s="11" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C274" s="14" t="s">
+        <v>1044</v>
+      </c>
       <c r="D274" s="5" t="s">
         <v>830</v>
       </c>
+      <c r="E274" s="15" t="s">
+        <v>1136</v>
+      </c>
       <c r="F274" s="7">
         <v>9</v>
+      </c>
+      <c r="G274" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
         <v>549</v>
       </c>
+      <c r="B275" s="11" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C275" s="14" t="s">
+        <v>1041</v>
+      </c>
       <c r="D275" s="5" t="s">
         <v>831</v>
       </c>
+      <c r="E275" s="15" t="s">
+        <v>1136</v>
+      </c>
       <c r="F275" s="7">
         <v>9</v>
+      </c>
+      <c r="G275" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
         <v>550</v>
       </c>
+      <c r="B276" s="11" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C276" s="14" t="s">
+        <v>1045</v>
+      </c>
       <c r="D276" s="5" t="s">
         <v>832</v>
       </c>
+      <c r="E276" s="15" t="s">
+        <v>1136</v>
+      </c>
       <c r="F276" s="7">
         <v>9</v>
+      </c>
+      <c r="G276" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
         <v>551</v>
       </c>
+      <c r="B277" s="11" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C277" s="12" t="s">
+        <v>1053</v>
+      </c>
       <c r="D277" s="5" t="s">
         <v>833</v>
       </c>
+      <c r="E277" s="15" t="s">
+        <v>1136</v>
+      </c>
       <c r="F277" s="7">
         <v>9</v>
+      </c>
+      <c r="G277" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
         <v>552</v>
       </c>
+      <c r="B278" s="11" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C278" s="12" t="s">
+        <v>1054</v>
+      </c>
       <c r="D278" s="5" t="s">
         <v>834</v>
       </c>
+      <c r="E278" s="15" t="s">
+        <v>1136</v>
+      </c>
       <c r="F278" s="7">
         <v>9</v>
+      </c>
+      <c r="G278" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
         <v>553</v>
       </c>
+      <c r="B279" s="11" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C279" s="12" t="s">
+        <v>1055</v>
+      </c>
       <c r="D279" s="5" t="s">
         <v>835</v>
       </c>
+      <c r="E279" s="15" t="s">
+        <v>1136</v>
+      </c>
       <c r="F279" s="7">
         <v>9</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
         <v>554</v>
       </c>
+      <c r="B280" s="11" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C280" s="14" t="s">
+        <v>1046</v>
+      </c>
       <c r="D280" s="5" t="s">
         <v>836</v>
       </c>
+      <c r="E280" s="15" t="s">
+        <v>1136</v>
+      </c>
       <c r="F280" s="7">
         <v>9</v>
+      </c>
+      <c r="G280" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
         <v>555</v>
       </c>
+      <c r="B281" s="11" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C281" s="14" t="s">
+        <v>1047</v>
+      </c>
       <c r="D281" s="5" t="s">
         <v>837</v>
       </c>
+      <c r="E281" s="15" t="s">
+        <v>1136</v>
+      </c>
       <c r="F281" s="7">
         <v>9</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="5" t="s">
         <v>556</v>
       </c>
+      <c r="B282" s="11" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C282" s="14" t="s">
+        <v>1048</v>
+      </c>
       <c r="D282" s="5" t="s">
         <v>838</v>
       </c>
+      <c r="E282" s="15" t="s">
+        <v>1136</v>
+      </c>
       <c r="F282" s="7">
         <v>9</v>
+      </c>
+      <c r="G282" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
         <v>557</v>
       </c>
+      <c r="B283" s="11" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C283" s="12" t="s">
+        <v>1056</v>
+      </c>
       <c r="D283" s="5" t="s">
         <v>839</v>
       </c>
+      <c r="E283" s="15" t="s">
+        <v>1136</v>
+      </c>
       <c r="F283" s="7">
         <v>9</v>
+      </c>
+      <c r="G283" s="1" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
@@ -10842,10 +12100,10 @@
         <v>558</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>1086</v>
+        <v>1077</v>
       </c>
       <c r="C284" s="8" t="s">
-        <v>1087</v>
+        <v>1078</v>
       </c>
       <c r="D284" s="5" t="s">
         <v>840</v>
@@ -10862,22 +12120,22 @@
         <v>559</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>1086</v>
+        <v>1077</v>
       </c>
       <c r="C285" s="8" t="s">
-        <v>1088</v>
+        <v>1079</v>
       </c>
       <c r="D285" s="5" t="s">
         <v>841</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F285" s="7">
         <v>9</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
@@ -10885,10 +12143,10 @@
         <v>560</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>1089</v>
+        <v>1080</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>1090</v>
+        <v>1081</v>
       </c>
       <c r="D286" s="5" t="s">
         <v>842</v>
@@ -10905,28 +12163,34 @@
         <v>561</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>1089</v>
+        <v>1080</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>1091</v>
+        <v>1082</v>
       </c>
       <c r="D287" s="5" t="s">
         <v>843</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F287" s="7">
         <v>9</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
         <v>562</v>
       </c>
+      <c r="B288" s="11" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C288" s="12" t="s">
+        <v>1179</v>
+      </c>
       <c r="D288" s="5" t="s">
         <v>844</v>
       </c>
@@ -10941,14 +12205,23 @@
       <c r="A289" s="5" t="s">
         <v>563</v>
       </c>
+      <c r="B289" s="11" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C289" s="12" t="s">
+        <v>1180</v>
+      </c>
       <c r="D289" s="5" t="s">
         <v>845</v>
       </c>
+      <c r="E289" s="13" t="s">
+        <v>954</v>
+      </c>
       <c r="F289" s="7">
         <v>9</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
@@ -10956,10 +12229,10 @@
         <v>564</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>1092</v>
+        <v>1083</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>1093</v>
+        <v>1084</v>
       </c>
       <c r="D290" s="5" t="s">
         <v>846</v>
@@ -10976,28 +12249,34 @@
         <v>565</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>1092</v>
+        <v>1083</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>1094</v>
+        <v>1085</v>
       </c>
       <c r="D291" s="5" t="s">
         <v>847</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F291" s="7">
         <v>9</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
         <v>566</v>
       </c>
+      <c r="B292" s="11" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C292" s="12" t="s">
+        <v>1182</v>
+      </c>
       <c r="D292" s="5" t="s">
         <v>848</v>
       </c>
@@ -11012,14 +12291,23 @@
       <c r="A293" s="5" t="s">
         <v>567</v>
       </c>
+      <c r="B293" s="11" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C293" s="12" t="s">
+        <v>1183</v>
+      </c>
       <c r="D293" s="5" t="s">
         <v>849</v>
       </c>
+      <c r="E293" s="13" t="s">
+        <v>954</v>
+      </c>
       <c r="F293" s="7">
         <v>9</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -11027,10 +12315,10 @@
         <v>568</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>1113</v>
+        <v>1104</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>1095</v>
+        <v>1086</v>
       </c>
       <c r="D294" s="5" t="s">
         <v>850</v>
@@ -11047,22 +12335,22 @@
         <v>569</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>1113</v>
+        <v>1104</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>1096</v>
+        <v>1087</v>
       </c>
       <c r="D295" s="5" t="s">
         <v>851</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F295" s="7">
         <v>9</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="296" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -11070,10 +12358,10 @@
         <v>570</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>1097</v>
+        <v>1088</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>1098</v>
+        <v>1089</v>
       </c>
       <c r="D296" s="5" t="s">
         <v>852</v>
@@ -11090,22 +12378,22 @@
         <v>571</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>1097</v>
+        <v>1088</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>1099</v>
+        <v>1090</v>
       </c>
       <c r="D297" s="5" t="s">
         <v>853</v>
       </c>
       <c r="E297" s="10" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="F297" s="7">
         <v>9</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
@@ -11113,22 +12401,22 @@
         <v>572</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>1100</v>
+        <v>1091</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>1101</v>
+        <v>1092</v>
       </c>
       <c r="D298" s="5" t="s">
         <v>854</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>1112</v>
+        <v>1103</v>
       </c>
       <c r="F298" s="7">
         <v>9</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="299" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11136,22 +12424,22 @@
         <v>573</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>1107</v>
+        <v>1098</v>
       </c>
       <c r="C299" s="8" t="s">
-        <v>1106</v>
+        <v>1097</v>
       </c>
       <c r="D299" s="5" t="s">
         <v>855</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>1112</v>
+        <v>1103</v>
       </c>
       <c r="F299" s="7">
         <v>9</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
@@ -11159,10 +12447,10 @@
         <v>574</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>1102</v>
+        <v>1093</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>1103</v>
+        <v>1094</v>
       </c>
       <c r="D300" s="5" t="s">
         <v>856</v>
@@ -11179,10 +12467,10 @@
         <v>575</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>1102</v>
+        <v>1093</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>1104</v>
+        <v>1095</v>
       </c>
       <c r="D301" s="5" t="s">
         <v>857</v>
@@ -11199,10 +12487,10 @@
         <v>576</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>1102</v>
+        <v>1093</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>1105</v>
+        <v>1096</v>
       </c>
       <c r="D302" s="5" t="s">
         <v>858</v>
@@ -11219,10 +12507,10 @@
         <v>577</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>1108</v>
+        <v>1099</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>1109</v>
+        <v>1100</v>
       </c>
       <c r="D303" s="5" t="s">
         <v>859</v>
@@ -11239,10 +12527,10 @@
         <v>578</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>1108</v>
+        <v>1099</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>1110</v>
+        <v>1101</v>
       </c>
       <c r="D304" s="5" t="s">
         <v>860</v>
@@ -11259,10 +12547,10 @@
         <v>579</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>1108</v>
+        <v>1099</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>1111</v>
+        <v>1102</v>
       </c>
       <c r="D305" s="5" t="s">
         <v>861</v>
